--- a/ACTIVE/Updated HOU-SQL-01/Updated HOU-SQL-01.xlsx
+++ b/ACTIVE/Updated HOU-SQL-01/Updated HOU-SQL-01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkaja\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rglazebrook\source\repos\Application Support\ACTIVE\Updated HOU-SQL-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB8C7DE-EE00-493C-85A9-05D1054199CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FAAFA5-EC13-41A2-87B4-D6D553FFB11B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BB9D7327-6169-422F-A56B-412EA2203AD8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BB9D7327-6169-422F-A56B-412EA2203AD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="212">
   <si>
     <t>JOB ID</t>
   </si>
@@ -666,6 +664,15 @@
   </si>
   <si>
     <t>Occurs every day at 9:15:00 PM. Schedule will be used starting on 3/13/2019.</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Archive</t>
+  </si>
+  <si>
+    <t>Dee to Review</t>
   </si>
 </sst>
 </file>
@@ -695,12 +702,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -715,10 +728,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1033,34 +1047,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F35BA08-4DC4-47A4-84CC-C4787F2BA541}">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="R46" sqref="R46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.6328125" customWidth="1"/>
-    <col min="2" max="2" width="38.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.6328125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.81640625" customWidth="1"/>
-    <col min="9" max="9" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="55.81640625" customWidth="1"/>
-    <col min="14" max="14" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="16.33203125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="10.21875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="9.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="23.77734375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="10.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="30.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="21.33203125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="16.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="55.77734375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>157</v>
       </c>
@@ -1112,8 +1126,11 @@
       <c r="Q1" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R1" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>161</v>
       </c>
@@ -1160,7 +1177,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>161</v>
       </c>
@@ -1200,8 +1217,11 @@
       <c r="Q3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>161</v>
       </c>
@@ -1241,8 +1261,11 @@
       <c r="Q4" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>161</v>
       </c>
@@ -1282,8 +1305,11 @@
       <c r="Q5" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>161</v>
       </c>
@@ -1323,8 +1349,11 @@
       <c r="Q6" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>161</v>
       </c>
@@ -1364,8 +1393,11 @@
       <c r="Q7" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>161</v>
       </c>
@@ -1412,7 +1444,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>161</v>
       </c>
@@ -1459,7 +1491,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>161</v>
       </c>
@@ -1505,8 +1537,11 @@
       <c r="Q10" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>161</v>
       </c>
@@ -1552,8 +1587,11 @@
       <c r="Q11" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>161</v>
       </c>
@@ -1605,8 +1643,11 @@
       <c r="Q12" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>161</v>
       </c>
@@ -1652,8 +1693,11 @@
       <c r="Q13" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>161</v>
       </c>
@@ -1706,7 +1750,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>161</v>
       </c>
@@ -1753,7 +1797,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>161</v>
       </c>
@@ -1806,7 +1850,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>161</v>
       </c>
@@ -1853,7 +1897,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>161</v>
       </c>
@@ -1899,8 +1943,11 @@
       <c r="Q18" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>161</v>
       </c>
@@ -1946,8 +1993,11 @@
       <c r="Q19" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R19" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>161</v>
       </c>
@@ -1999,8 +2049,11 @@
       <c r="Q20" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R20" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>161</v>
       </c>
@@ -2052,8 +2105,11 @@
       <c r="Q21" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>161</v>
       </c>
@@ -2099,8 +2155,11 @@
       <c r="Q22" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R22" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>161</v>
       </c>
@@ -2140,8 +2199,11 @@
       <c r="Q23" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>161</v>
       </c>
@@ -2193,8 +2255,11 @@
       <c r="Q24" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>161</v>
       </c>
@@ -2247,7 +2312,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>161</v>
       </c>
@@ -2299,8 +2364,11 @@
       <c r="Q26" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R26" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>161</v>
       </c>
@@ -2353,7 +2421,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>161</v>
       </c>
@@ -2393,8 +2461,11 @@
       <c r="Q28" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R28" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>161</v>
       </c>
@@ -2440,8 +2511,11 @@
       <c r="Q29" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R29" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>161</v>
       </c>
@@ -2487,8 +2561,11 @@
       <c r="Q30" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R30" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>161</v>
       </c>
@@ -2528,8 +2605,11 @@
       <c r="Q31" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>161</v>
       </c>
@@ -2570,7 +2650,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>161</v>
       </c>
@@ -2611,7 +2691,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>161</v>
       </c>
@@ -2658,7 +2738,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>161</v>
       </c>
@@ -2705,7 +2785,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>161</v>
       </c>
@@ -2752,7 +2832,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>161</v>
       </c>
@@ -2799,7 +2879,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>161</v>
       </c>
@@ -2846,7 +2926,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>161</v>
       </c>
@@ -2899,7 +2979,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>161</v>
       </c>
@@ -2946,7 +3026,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>161</v>
       </c>
@@ -2987,7 +3067,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>161</v>
       </c>
@@ -3028,7 +3108,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>161</v>
       </c>
@@ -3069,7 +3149,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>161</v>
       </c>
@@ -3110,7 +3190,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>161</v>
       </c>
@@ -3161,6 +3241,9 @@
       </c>
       <c r="Q45" t="s">
         <v>176</v>
+      </c>
+      <c r="R45" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
